--- a/menu.xlsx
+++ b/menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4919e8f046f839/Desktop/2024/Proyecto Desarrollo App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wasca\Downloads\Proyecto_Desarrollo_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{F198B2F9-2118-4B4C-8559-E840CE8120BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB524B3-4B81-40A1-8060-5B41BD74F24E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1DBE3-0EF0-4BE3-8E47-85B9DF679498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A18BE67-EAA1-4F76-A929-12E53EBA553A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A18BE67-EAA1-4F76-A929-12E53EBA553A}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>1300</v>
       </c>
       <c r="D2">
-        <v>260</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>950</v>
       </c>
       <c r="D3">
-        <v>190</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -545,7 +545,7 @@
         <v>2400</v>
       </c>
       <c r="D4">
-        <v>480</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,7 +559,7 @@
         <v>2800</v>
       </c>
       <c r="D5">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>150</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
         <v>200</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>1900</v>
       </c>
       <c r="D8">
-        <v>380</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,7 +615,7 @@
         <v>2000</v>
       </c>
       <c r="D9">
-        <v>400</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>1300</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
         <v>1500</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>250</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>250</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>200</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,7 +699,7 @@
         <v>200</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,7 +713,7 @@
         <v>150</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>80</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,7 +741,7 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>70</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
